--- a/bioSample/bioSample_J.PLAGGENBERG_08.12.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_08.12.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -92,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,10 +122,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,12 +177,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +198,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -211,7 +222,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,14 +230,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -264,10 +275,10 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
@@ -278,16 +289,16 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="I2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -298,10 +309,10 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
@@ -312,16 +323,16 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="I3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -332,10 +343,10 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
@@ -346,16 +357,16 @@
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="I4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -366,10 +377,10 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
@@ -380,16 +391,16 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -400,10 +411,10 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
@@ -414,16 +425,16 @@
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -434,10 +445,10 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
@@ -448,16 +459,16 @@
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -468,10 +479,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
@@ -482,16 +493,16 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="I8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -502,10 +513,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
@@ -516,16 +527,16 @@
       <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="n">
+      <c r="I9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -536,10 +547,10 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
@@ -550,16 +561,16 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="n">
+      <c r="I10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -570,10 +581,10 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
@@ -584,16 +595,16 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="K11" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,10 +615,10 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
@@ -618,16 +629,16 @@
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="K12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -638,10 +649,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
@@ -652,16 +663,16 @@
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="K13" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -672,10 +683,10 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
@@ -686,16 +697,16 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="2" t="n">
+      <c r="I14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,10 +717,10 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
@@ -720,16 +731,16 @@
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="2" t="n">
+      <c r="I15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -740,10 +751,10 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
@@ -754,16 +765,16 @@
       <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="2" t="n">
+      <c r="I16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -774,10 +785,10 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
@@ -788,16 +799,16 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -808,10 +819,10 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1"/>
@@ -822,16 +833,16 @@
       <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -842,10 +853,10 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1"/>
@@ -856,16 +867,16 @@
       <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="3" t="n">
         <v>3</v>
       </c>
     </row>
